--- a/data/curriculum_source.xlsx
+++ b/data/curriculum_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/IOSTEM-JSONIMPORT-main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE093043-0E2F-3049-91B5-73540219E8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ADD3A0-02D8-D943-B70D-2DF847E57FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
   <si>
     <t>Grade</t>
   </si>
@@ -76,54 +76,24 @@
     <t>SIMPLE_APPLY</t>
   </si>
   <si>
-    <t>topic01-req01-simple</t>
-  </si>
-  <si>
-    <t>Đi thẳng và Thu thập</t>
-  </si>
-  <si>
-    <t>Nhân vật đang ở đầu một con đường thẳng. Hãy viết code để nhân vật đi đến cuối đường và lấy viên pha lê.</t>
-  </si>
-  <si>
-    <t>Go Straight and Collect</t>
-  </si>
-  <si>
-    <t>The character is at the start of a straight path. Write code to make the character move to the end and collect the crystal.</t>
-  </si>
-  <si>
     <t>simple_path</t>
   </si>
   <si>
     <t>sequencing</t>
   </si>
   <si>
-    <t>path_length:4;items_to_place:crystal</t>
-  </si>
-  <si>
     <t>movement_actions</t>
   </si>
   <si>
     <t>crystal:1</t>
   </si>
   <si>
-    <t>TOPIC_08_ALGORITHMS</t>
-  </si>
-  <si>
-    <t>Thuật toán</t>
-  </si>
-  <si>
     <t>COMPLEX_APPLY</t>
   </si>
   <si>
-    <t>topic08-req05-complex</t>
-  </si>
-  <si>
     <t>Thử thách Người giao hàng</t>
   </si>
   <si>
-    <t>Thu thập tất cả các loại kho báu khác nhau (pha lê, đá quý, chìa khóa) trong mê cung trước khi đến đích.</t>
-  </si>
-  <si>
     <t>The Delivery Challenge</t>
   </si>
   <si>
@@ -139,134 +109,317 @@
     <t>full_toolbox</t>
   </si>
   <si>
-    <t>TOPIC_03_LOOPS</t>
-  </si>
-  <si>
-    <t>Vòng lặp</t>
-  </si>
-  <si>
     <t>DEBUG_FIX_LOGIC</t>
   </si>
   <si>
-    <t>topic03-req03-debug-logic</t>
-  </si>
-  <si>
     <t>Sửa lỗi: Rẽ sai hướng</t>
   </si>
   <si>
-    <t>Chương trình này làm nhân vật rẽ trái thay vì rẽ phải ở góc cua. Hãy tìm và sửa lại khối lệnh bị sai!</t>
-  </si>
-  <si>
     <t>Debug: Wrong Turn</t>
   </si>
   <si>
-    <t>This program makes the character turn left instead of right at the corner. Find and fix the incorrect block!</t>
-  </si>
-  <si>
     <t>l_shape</t>
   </si>
   <si>
-    <t>path_length:4;turn_direction:right;start_blocks_type:buggy_solution;bug_type:incorrect_block;bug_config:{"target":"main","options":{"from":"turn_right","to":"turn_left"}}</t>
-  </si>
-  <si>
-    <t>TOPIC_02_ACTIONS</t>
-  </si>
-  <si>
-    <t>Hành động</t>
-  </si>
-  <si>
     <t>DEBUG_FIX_SEQUENCE</t>
   </si>
   <si>
-    <t>topic02-req04-debug-seq</t>
-  </si>
-  <si>
     <t>Sửa lỗi: Thu thập quá sớm</t>
   </si>
   <si>
-    <t>Các lệnh đều đúng, nhưng nhân vật đang cố thu thập pha lê trước khi di chuyển tới vị trí của nó. Hãy sắp xếp lại!</t>
-  </si>
-  <si>
     <t>Debug: Collect Too Soon</t>
   </si>
   <si>
-    <t>All the commands are correct, but the character is trying to collect the crystal before moving to its location. Reorder them!</t>
-  </si>
-  <si>
-    <t>path_length:3;items_to_place:crystal;start_blocks_type:buggy_solution;bug_type:sequence_error;bug_config:{"target":"main"}</t>
-  </si>
-  <si>
     <t>REFACTOR</t>
   </si>
   <si>
-    <t>topic03-req05-refactor</t>
-  </si>
-  <si>
-    <t>Tối ưu: Vẽ hình vuông</t>
-  </si>
-  <si>
-    <t>Chương trình này chạy đúng nhưng quá dài. Hãy sử dụng kiến thức về vòng lặp để viết lại chương trình cho ngắn gọn hơn.</t>
-  </si>
-  <si>
-    <t>Refactor: Drawing a Square</t>
-  </si>
-  <si>
-    <t>This program draws the square correctly, but it's too long. Use your knowledge of loops to rewrite it more concisely.</t>
-  </si>
-  <si>
-    <t>square_shape</t>
-  </si>
-  <si>
     <t>for_loop_simple</t>
   </si>
   <si>
-    <t>side_length:4;start_blocks_type:unrefactored_solution</t>
-  </si>
-  <si>
     <t>loops_basic</t>
   </si>
   <si>
-    <t>maze_width:9;items_to_place:['crystal']</t>
-  </si>
-  <si>
-    <t>TOPIC_09_3D_NAV</t>
-  </si>
-  <si>
-    <t>Điều hướng 3D</t>
-  </si>
-  <si>
-    <t>topic09-req01-vertical-maze</t>
-  </si>
-  <si>
-    <t>Mê cung Dựng đứng</t>
-  </si>
-  <si>
-    <t>Nhân vật đang ở dưới chân một mê cung lơ lửng. Hãy sử dụng các lệnh di chuyển và nhảy để tìm đường lên đến đích ở trên cao.</t>
-  </si>
-  <si>
-    <t>Vertical Maze</t>
-  </si>
-  <si>
-    <t>The character is at the bottom of a floating maze. Use move and jump commands to find the way to the destination high above.</t>
-  </si>
-  <si>
-    <t>crystal:1;gem:1</t>
-  </si>
-  <si>
-    <t>swift_playground_maze</t>
-  </si>
-  <si>
-    <t>swift_playground_placer</t>
-  </si>
-  <si>
-    <t>maze_width:14;maze_depth:14;items_to_place:["crystal","gem"]</t>
+    <t>gen_num_variants</t>
+  </si>
+  <si>
+    <t>T01-L01-move</t>
+  </si>
+  <si>
+    <t>Bước đi đầu tiên</t>
+  </si>
+  <si>
+    <t>First Step</t>
+  </si>
+  <si>
+    <t>path_length:3</t>
+  </si>
+  <si>
+    <t>movement_only</t>
+  </si>
+  <si>
+    <t>T01-L02-move-refactor</t>
+  </si>
+  <si>
+    <t>Tối ưu quãng đường</t>
+  </si>
+  <si>
+    <t>Optimize the Path</t>
+  </si>
+  <si>
+    <t>path_length:4; start_blocks_type:unrefactored_solution</t>
+  </si>
+  <si>
+    <t>T01-L03-turn</t>
+  </si>
+  <si>
+    <t>Ngã rẽ</t>
+  </si>
+  <si>
+    <t>Making a Turn</t>
+  </si>
+  <si>
+    <t>movement_turn</t>
+  </si>
+  <si>
+    <t>T01-L04-turn-debug</t>
+  </si>
+  <si>
+    <t>T01-L05-collect</t>
+  </si>
+  <si>
+    <t>Thu thập kho báu</t>
+  </si>
+  <si>
+    <t>Collect the Treasure</t>
+  </si>
+  <si>
+    <t>path_length:4; items_to_place:crystal; asset_theme:{'ground':'stone.stone01'}</t>
+  </si>
+  <si>
+    <t>movement_collect</t>
+  </si>
+  <si>
+    <t>T01-L06-collect-debug</t>
+  </si>
+  <si>
+    <t>Nhân vật đang cố thu thập pha lê trước khi di chuyển tới vị trí của nó. Hãy sắp xếp lại các khối lệnh!</t>
+  </si>
+  <si>
+    <t>The character is trying to collect the crystal before moving to its location. Reorder the blocks!</t>
+  </si>
+  <si>
+    <t>path_length:3; items_to_place:crystal; start_blocks_type:buggy_solution; bug_type:sequence_error</t>
+  </si>
+  <si>
+    <t>T01-L07-jump</t>
+  </si>
+  <si>
+    <t>Vượt chướng ngại vật</t>
+  </si>
+  <si>
+    <t>Over the Obstacle</t>
+  </si>
+  <si>
+    <t>movement_jump</t>
+  </si>
+  <si>
+    <t>T01-L08-jump-debug</t>
+  </si>
+  <si>
+    <t>Sửa lỗi: Đâm vào tường</t>
+  </si>
+  <si>
+    <t>Debug: Hitting the Wall</t>
+  </si>
+  <si>
+    <t>path_length:4; obstacle_count:1; start_blocks_type:buggy_solution; bug_type:incorrect_block; bug_config:{'target':'main','options':{'from':'jump','to':'moveForward'}}</t>
+  </si>
+  <si>
+    <t>T01-L09-switch</t>
+  </si>
+  <si>
+    <t>Bật công tắc</t>
+  </si>
+  <si>
+    <t>Toggle the Switch</t>
+  </si>
+  <si>
+    <t>path_length:3; items_to_place:switch</t>
+  </si>
+  <si>
+    <t>switch:1</t>
+  </si>
+  <si>
+    <t>T01-L10-move-turn-collect</t>
+  </si>
+  <si>
+    <t>Thử thách tổng hợp 1</t>
+  </si>
+  <si>
+    <t>Kết hợp di chuyển, rẽ và thu thập để hoàn thành mê cung zíc-zắc và lấy tất cả pha lê.</t>
+  </si>
+  <si>
+    <t>Combo Challenge 1</t>
+  </si>
+  <si>
+    <t>Combine moving, turning, and collecting to complete the zigzag maze and get all crystals.</t>
+  </si>
+  <si>
+    <t>z_shape</t>
+  </si>
+  <si>
+    <t>leg1_length:3; leg2_length:3; leg3_length:3; items_to_place:['crystal','crystal']</t>
+  </si>
+  <si>
+    <t>crystal:2</t>
+  </si>
+  <si>
+    <t>T01-L11-move-jump-switch</t>
+  </si>
+  <si>
+    <t>Thử thách tổng hợp 2</t>
+  </si>
+  <si>
+    <t>Vượt qua các hòn đảo tách biệt bằng cách nhảy và bật các công tắc trên đường đi.</t>
+  </si>
+  <si>
+    <t>Combo Challenge 2</t>
+  </si>
+  <si>
+    <t>Cross the separate islands by jumping and toggling switches along the way.</t>
+  </si>
+  <si>
+    <t>num_islands:3; island_spacing:1; items_to_place:['switch','switch']</t>
+  </si>
+  <si>
+    <t>switch:2</t>
+  </si>
+  <si>
+    <t>T01-L12-complex-debug</t>
+  </si>
+  <si>
+    <t>Sửa lỗi: Mê cung hỗn loạn</t>
+  </si>
+  <si>
+    <t>Các lệnh để giải mê cung đều đúng, nhưng chúng đang ở sai vị trí! Hãy sắp xếp lại để nhân vật về đích.</t>
+  </si>
+  <si>
+    <t>Debug: Chaotic Maze</t>
+  </si>
+  <si>
+    <t>The commands to solve the maze are correct, but they are in the wrong order! Rearrange them to get the character to the finish.</t>
+  </si>
+  <si>
+    <t>T01-L13-final-challenge</t>
+  </si>
+  <si>
+    <t>Thử thách cuối cùng</t>
+  </si>
+  <si>
+    <t>Áp dụng tất cả các lệnh đã học: di chuyển, rẽ, nhảy, thu thập và bật công tắc để chinh phục mê cung cuối cùng này!</t>
+  </si>
+  <si>
+    <t>The Final Challenge</t>
+  </si>
+  <si>
+    <t>Apply all learned commands: move, turn, jump, collect, and toggle to conquer this final maze!</t>
+  </si>
+  <si>
+    <t>hub_with_branches</t>
+  </si>
+  <si>
+    <t>num_branches:3; branch_length:4; items_to_place:['crystal','switch','crystal']; obstacle_count:2</t>
+  </si>
+  <si>
+    <t>crystal:2; switch:1</t>
+  </si>
+  <si>
+    <t>Sử dụng khối moveForward để giúp nhân vật đi thẳng về phía trước.</t>
+  </si>
+  <si>
+    <t>Use the moveForward block to make the character go straight.</t>
+  </si>
+  <si>
+    <t>Chương trình có 4 khối moveForward. Hãy dùng vòng lặp repeat để làm nó ngắn gọn hơn.</t>
+  </si>
+  <si>
+    <t>This program has 4 moveForward blocks. Use a repeat loop to make it shorter.</t>
+  </si>
+  <si>
+    <t>Sử dụng các khối moveForward và turnLeft/turnRight để đi theo con đường hình chữ L.</t>
+  </si>
+  <si>
+    <t>Use moveForward and turnLeft/turnRight blocks to follow the L-shaped path.</t>
+  </si>
+  <si>
+    <t>Nhân vật cần rẽ phải nhưng chương trình lại rẽ trái. Hãy tìm và sửa lại khối lệnh turnLeft thành turnRight.</t>
+  </si>
+  <si>
+    <t>The character needs to turn right, but the program turns left. Find and fix the turnLeft block to turnRight.</t>
+  </si>
+  <si>
+    <t>Di chuyển tới và sử dụng khối collect để thu thập viên pha lê.</t>
+  </si>
+  <si>
+    <t>Move to the crystal and use the collect block to get it.</t>
+  </si>
+  <si>
+    <t>Sử dụng khối jump để nhảy qua bức tường và đi tiếp.</t>
+  </si>
+  <si>
+    <t>Use the jump block to jump over the wall and continue.</t>
+  </si>
+  <si>
+    <t>Nhân vật đang cố đi xuyên tường thay vì nhảy qua. Hãy thay thế khối moveForward sai bằng khối jump.</t>
+  </si>
+  <si>
+    <t>The character is trying to walk through the wall instead of jumping over it. Replace the wrong moveForward block with a jump block.</t>
+  </si>
+  <si>
+    <t>Di chuyển tới và sử dụng khối toggleSwitch để bật công tắc.</t>
+  </si>
+  <si>
+    <t>Move to the switch and use the toggleSwitch block to activate it.</t>
+  </si>
+  <si>
+    <t>path_length:3; start_blocks_type:buggy_solution; bug_type:incorrect_parameter; bug_config:{'target':'main'}</t>
+  </si>
+  <si>
+    <t>path_length:3; asset_theme:{'ground':'ground.earth'}</t>
+  </si>
+  <si>
+    <t>path_length:[4,8]; obstacle_count:[1,2]; asset_theme:{'ground':'ground.snow','obstacle':'ice.ice01'}</t>
+  </si>
+  <si>
+    <t>interspersed_path</t>
+  </si>
+  <si>
+    <t>TOPIC_09_ALGORITHMS</t>
+  </si>
+  <si>
+    <t>Thuật toán1</t>
+  </si>
+  <si>
+    <t>topic09-req05-complex</t>
+  </si>
+  <si>
+    <t>maze_width:9; items_to_place:['crystal', 'crystal']; asset_theme:{'ground':'stone.stone02'}</t>
+  </si>
+  <si>
+    <t>ALL Thu thập tất cả các loại kho báu khác nhau (pha lê, đá quý, chìa khóa) trong mê cung trước khi đến đích.</t>
+  </si>
+  <si>
+    <t>maze_width:14; items_to_place:['crystal','crystal', 'crystal']; asset_theme:{'ground':'stone.stone04'}</t>
+  </si>
+  <si>
+    <t>crystal:3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -282,6 +435,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,23 +475,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,359 +709,829 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="7"/>
+    <col min="8" max="8" width="97.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="4"/>
     <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="133.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="133.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="8">
+        <v>2</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="8">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="8">
+        <v>2</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2">
+      <c r="L6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="8">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="N6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="8">
+        <v>8</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="8">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="P10" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="E11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="8">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="8">
+        <v>11</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="8">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="8">
+        <v>13</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="H15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="J15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="K15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="L15" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M8" s="4"/>
+      <c r="P15" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N16" s="2"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="18" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/curriculum_source.xlsx
+++ b/data/curriculum_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/IOSTEM-JSONIMPORT-main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ADD3A0-02D8-D943-B70D-2DF847E57FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6318AF35-690E-C54C-B53A-D6690CC4BF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="130">
   <si>
     <t>Grade</t>
   </si>
@@ -409,10 +409,7 @@
     <t>ALL Thu thập tất cả các loại kho báu khác nhau (pha lê, đá quý, chìa khóa) trong mê cung trước khi đến đích.</t>
   </si>
   <si>
-    <t>maze_width:14; items_to_place:['crystal','crystal', 'crystal']; asset_theme:{'ground':'stone.stone04'}</t>
-  </si>
-  <si>
-    <t>crystal:3</t>
+    <t>maze_width:12; items_to_place:['crystal','crystal']; asset_theme:{'ground':'wall.brick01'}</t>
   </si>
 </sst>
 </file>
@@ -711,8 +708,8 @@
   </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1519,7 +1516,7 @@
         <v>28</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
